--- a/Inflacion Mexico.xlsx
+++ b/Inflacion Mexico.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\av1la\Downloads\ITESO\Simulación\Proyecto_Simulacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Downloads\Simulacio nodo MARIANA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F73023B-A369-44FE-A0D5-60B1DAD18E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="8" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="10" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="11" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="101">
   <si>
     <t>Diferencial</t>
   </si>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy;@"/>
   </numFmts>
@@ -514,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -557,6 +557,8 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,16 +838,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25964CCF-D75C-4B9F-AFBC-FE02398123DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
@@ -2297,7 +2299,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B97">
+  <sortState ref="A2:B97">
     <sortCondition ref="A2:A97"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2305,275 +2307,529 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15042B3-95AC-4285-9EB1-B5F4A0E1A300}">
-  <dimension ref="A1:B97"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.5">
       <c r="A2" s="1">
         <v>42095</v>
       </c>
       <c r="B2" s="4">
         <v>3.3000000000000002E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25">
+      <c r="D2" s="1">
+        <f>A4</f>
+        <v>42156</v>
+      </c>
+      <c r="E2" s="16">
+        <f>B4</f>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17.5">
       <c r="A3" s="1">
         <v>42125</v>
       </c>
       <c r="B3" s="4">
         <v>2.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25">
+      <c r="D3" s="1">
+        <f>A7</f>
+        <v>42248</v>
+      </c>
+      <c r="E3" s="16">
+        <f>B7</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17.5">
       <c r="A4" s="1">
         <v>42156</v>
       </c>
       <c r="B4" s="4">
         <v>2.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="17.25">
+      <c r="D4" s="1">
+        <f>A10</f>
+        <v>42339</v>
+      </c>
+      <c r="E4" s="16">
+        <f>B10</f>
+        <v>1.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.5">
       <c r="A5" s="1">
         <v>42186</v>
       </c>
       <c r="B5" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="17.25">
+      <c r="D5" s="1">
+        <f>A13</f>
+        <v>42430</v>
+      </c>
+      <c r="E5" s="16">
+        <f>B13</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17.5">
       <c r="A6" s="1">
         <v>42217</v>
       </c>
       <c r="B6" s="4">
         <v>2.4E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="17.25">
+      <c r="D6" s="1">
+        <f>A16</f>
+        <v>42522</v>
+      </c>
+      <c r="E6" s="16">
+        <f>B16</f>
+        <v>1.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="17.5">
       <c r="A7" s="1">
         <v>42248</v>
       </c>
       <c r="B7" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="17.25">
+      <c r="D7" s="1">
+        <f>A19</f>
+        <v>42614</v>
+      </c>
+      <c r="E7" s="16">
+        <f>B19</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="17.5">
       <c r="A8" s="1">
         <v>42278</v>
       </c>
       <c r="B8" s="4">
         <v>2.3E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="17.25">
+      <c r="D8" s="1">
+        <f>A22</f>
+        <v>42705</v>
+      </c>
+      <c r="E8" s="16">
+        <f>B22</f>
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17.5">
       <c r="A9" s="1">
         <v>42309</v>
       </c>
       <c r="B9" s="4">
         <v>1.6999999999999998E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="17.25">
+      <c r="D9" s="1">
+        <f>A25</f>
+        <v>42795</v>
+      </c>
+      <c r="E9" s="16">
+        <f>B25</f>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="17.5">
       <c r="A10" s="1">
         <v>42339</v>
       </c>
       <c r="B10" s="4">
         <v>1.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="17.25">
+      <c r="D10" s="1">
+        <f>A28</f>
+        <v>42887</v>
+      </c>
+      <c r="E10" s="16">
+        <f>B28</f>
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17.5">
       <c r="A11" s="1">
         <v>42370</v>
       </c>
       <c r="B11" s="4">
         <v>1.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="17.25">
+      <c r="D11" s="1">
+        <f>A31</f>
+        <v>42979</v>
+      </c>
+      <c r="E11" s="16">
+        <f>B31</f>
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="17.5">
       <c r="A12" s="1">
         <v>42401</v>
       </c>
       <c r="B12" s="4">
         <v>1.9000000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="17.25">
+      <c r="D12" s="1">
+        <f>A34</f>
+        <v>43070</v>
+      </c>
+      <c r="E12" s="16">
+        <f>B34</f>
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.5">
       <c r="A13" s="1">
         <v>42430</v>
       </c>
       <c r="B13" s="4">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25">
+      <c r="D13" s="1">
+        <f>A37</f>
+        <v>43160</v>
+      </c>
+      <c r="E13" s="16">
+        <f>B37</f>
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17.5">
       <c r="A14" s="1">
         <v>42461</v>
       </c>
       <c r="B14" s="4">
         <v>1.4000000000000002E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="17.25">
+      <c r="D14" s="1">
+        <f>A40</f>
+        <v>43252</v>
+      </c>
+      <c r="E14" s="16">
+        <f>B40</f>
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17.5">
       <c r="A15" s="1">
         <v>42491</v>
       </c>
       <c r="B15" s="4">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="17.25">
+      <c r="D15" s="1">
+        <f>A43</f>
+        <v>43344</v>
+      </c>
+      <c r="E15" s="16">
+        <f>B43</f>
+        <v>2.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="17.5">
       <c r="A16" s="1">
         <v>42522</v>
       </c>
       <c r="B16" s="4">
         <v>1.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="17.25">
+      <c r="D16" s="1">
+        <f>A46</f>
+        <v>43435</v>
+      </c>
+      <c r="E16" s="16">
+        <f>B46</f>
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17.5">
       <c r="A17" s="1">
         <v>42552</v>
       </c>
       <c r="B17" s="4">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="17.25">
+      <c r="D17" s="1">
+        <f>A49</f>
+        <v>43525</v>
+      </c>
+      <c r="E17" s="16">
+        <f>B49</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.5">
       <c r="A18" s="1">
         <v>42583</v>
       </c>
       <c r="B18" s="4">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="17.25">
+      <c r="D18" s="1">
+        <f>A52</f>
+        <v>43617</v>
+      </c>
+      <c r="E18" s="16">
+        <f>B52</f>
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17.5">
       <c r="A19" s="1">
         <v>42614</v>
       </c>
       <c r="B19" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="17.25">
+      <c r="D19" s="1">
+        <f>A55</f>
+        <v>43709</v>
+      </c>
+      <c r="E19" s="16">
+        <f>B55</f>
+        <v>1.2999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="17.5">
       <c r="A20" s="1">
         <v>42644</v>
       </c>
       <c r="B20" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="17.25">
+      <c r="D20" s="1">
+        <f>A58</f>
+        <v>43800</v>
+      </c>
+      <c r="E20" s="16">
+        <f>B58</f>
+        <v>5.000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17.5">
       <c r="A21" s="1">
         <v>42675</v>
       </c>
       <c r="B21" s="4">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="17.25">
+      <c r="D21" s="1">
+        <f>A61</f>
+        <v>43891</v>
+      </c>
+      <c r="E21" s="16">
+        <f>B61</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17.5">
       <c r="A22" s="1">
         <v>42705</v>
       </c>
       <c r="B22" s="4">
         <v>1.3000000000000001E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="17.25">
+      <c r="D22" s="1">
+        <f>A64</f>
+        <v>43983</v>
+      </c>
+      <c r="E22" s="16">
+        <f>B64</f>
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="17.5">
       <c r="A23" s="1">
         <v>42736</v>
       </c>
       <c r="B23" s="4">
         <v>2.1999999999999999E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="17.25">
+      <c r="D23" s="1">
+        <f>A67</f>
+        <v>44075</v>
+      </c>
+      <c r="E23" s="16">
+        <f>B67</f>
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="17.5">
       <c r="A24" s="1">
         <v>42767</v>
       </c>
       <c r="B24" s="4">
         <v>2.2000000000000002E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="17.25">
+      <c r="D24" s="1">
+        <f>A70</f>
+        <v>44166</v>
+      </c>
+      <c r="E24" s="16">
+        <f>B70</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17.5">
       <c r="A25" s="1">
         <v>42795</v>
       </c>
       <c r="B25" s="4">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="17.25">
+      <c r="D25" s="1">
+        <f>A73</f>
+        <v>44256</v>
+      </c>
+      <c r="E25" s="16">
+        <f>B73</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="17.5">
       <c r="A26" s="1">
         <v>42826</v>
       </c>
       <c r="B26" s="4">
         <v>3.6000000000000004E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="17.25">
+      <c r="D26" s="1">
+        <f>A76</f>
+        <v>44348</v>
+      </c>
+      <c r="E26" s="16">
+        <f>B76</f>
+        <v>4.9999999999999975E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.5">
       <c r="A27" s="1">
         <v>42856</v>
       </c>
       <c r="B27" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="17.25">
+      <c r="D27" s="1">
+        <f>A79</f>
+        <v>44440</v>
+      </c>
+      <c r="E27" s="16">
+        <f>B79</f>
+        <v>5.9999999999999984E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.5">
       <c r="A28" s="1">
         <v>42887</v>
       </c>
       <c r="B28" s="4">
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="17.25">
+      <c r="D28" s="1">
+        <f>A82</f>
+        <v>44531</v>
+      </c>
+      <c r="E28" s="16">
+        <f>B82</f>
+        <v>3.9999999999999897E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17.5">
       <c r="A29" s="1">
         <v>42917</v>
       </c>
       <c r="B29" s="4">
         <v>4.7E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="17.25">
+      <c r="D29" s="1">
+        <f>A85</f>
+        <v>44621</v>
+      </c>
+      <c r="E29" s="16">
+        <f>B85</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="17.5">
       <c r="A30" s="1">
         <v>42948</v>
       </c>
       <c r="B30" s="4">
         <v>4.8000000000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="17.25">
+      <c r="D30" s="1">
+        <f>A88</f>
+        <v>44713</v>
+      </c>
+      <c r="E30" s="16">
+        <f>B88</f>
+        <v>-1.0999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17.5">
       <c r="A31" s="1">
         <v>42979</v>
       </c>
       <c r="B31" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="17.25">
+      <c r="D31" s="1">
+        <f>A91</f>
+        <v>44805</v>
+      </c>
+      <c r="E31" s="16">
+        <f>B91</f>
+        <v>4.9999999999999906E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17.5">
       <c r="A32" s="1">
         <v>43009</v>
       </c>
       <c r="B32" s="4">
         <v>4.3999999999999997E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="17.25">
+      <c r="D32" s="1">
+        <f>A94</f>
+        <v>44896</v>
+      </c>
+      <c r="E32" s="16">
+        <f>B94</f>
+        <v>1.2999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17.5">
       <c r="A33" s="1">
         <v>43040</v>
       </c>
@@ -2581,7 +2837,7 @@
         <v>4.4000000000000004E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="17.25">
+    <row r="34" spans="1:2" ht="17.5">
       <c r="A34" s="1">
         <v>43070</v>
       </c>
@@ -2589,7 +2845,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="17.25">
+    <row r="35" spans="1:2" ht="17.5">
       <c r="A35" s="1">
         <v>43101</v>
       </c>
@@ -2597,7 +2853,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="17.25">
+    <row r="36" spans="1:2" ht="17.5">
       <c r="A36" s="1">
         <v>43132</v>
       </c>
@@ -2605,7 +2861,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="17.25">
+    <row r="37" spans="1:2" ht="17.5">
       <c r="A37" s="1">
         <v>43160</v>
       </c>
@@ -2613,7 +2869,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="17.25">
+    <row r="38" spans="1:2" ht="17.5">
       <c r="A38" s="1">
         <v>43191</v>
       </c>
@@ -2621,7 +2877,7 @@
         <v>2.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="17.25">
+    <row r="39" spans="1:2" ht="17.5">
       <c r="A39" s="1">
         <v>43221</v>
       </c>
@@ -2629,7 +2885,7 @@
         <v>1.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="17.25">
+    <row r="40" spans="1:2" ht="17.5">
       <c r="A40" s="1">
         <v>43252</v>
       </c>
@@ -2637,7 +2893,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="17.25">
+    <row r="41" spans="1:2" ht="17.5">
       <c r="A41" s="1">
         <v>43282</v>
       </c>
@@ -2645,7 +2901,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="17.25">
+    <row r="42" spans="1:2" ht="17.5">
       <c r="A42" s="1">
         <v>43313</v>
       </c>
@@ -2653,7 +2909,7 @@
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="17.25">
+    <row r="43" spans="1:2" ht="17.5">
       <c r="A43" s="1">
         <v>43344</v>
       </c>
@@ -2661,7 +2917,7 @@
         <v>2.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="17.25">
+    <row r="44" spans="1:2" ht="17.5">
       <c r="A44" s="1">
         <v>43374</v>
       </c>
@@ -2669,7 +2925,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="17.25">
+    <row r="45" spans="1:2" ht="17.5">
       <c r="A45" s="1">
         <v>43405</v>
       </c>
@@ -2677,7 +2933,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="17.25">
+    <row r="46" spans="1:2" ht="17.5">
       <c r="A46" s="1">
         <v>43435</v>
       </c>
@@ -2685,7 +2941,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="17.25">
+    <row r="47" spans="1:2" ht="17.5">
       <c r="A47" s="1">
         <v>43466</v>
       </c>
@@ -2693,7 +2949,7 @@
         <v>2.7999999999999997E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="17.25">
+    <row r="48" spans="1:2" ht="17.5">
       <c r="A48" s="1">
         <v>43497</v>
       </c>
@@ -2701,7 +2957,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="17.25">
+    <row r="49" spans="1:2" ht="17.5">
       <c r="A49" s="1">
         <v>43525</v>
       </c>
@@ -2709,7 +2965,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="17.25">
+    <row r="50" spans="1:2" ht="17.5">
       <c r="A50" s="1">
         <v>43556</v>
       </c>
@@ -2717,7 +2973,7 @@
         <v>2.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="17.25">
+    <row r="51" spans="1:2" ht="17.5">
       <c r="A51" s="1">
         <v>43586</v>
       </c>
@@ -2725,7 +2981,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="17.25">
+    <row r="52" spans="1:2" ht="17.5">
       <c r="A52" s="1">
         <v>43617</v>
       </c>
@@ -2733,7 +2989,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="17.25">
+    <row r="53" spans="1:2" ht="17.5">
       <c r="A53" s="1">
         <v>43647</v>
       </c>
@@ -2741,7 +2997,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="17.25">
+    <row r="54" spans="1:2" ht="17.5">
       <c r="A54" s="1">
         <v>43678</v>
       </c>
@@ -2749,7 +3005,7 @@
         <v>1.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="17.25">
+    <row r="55" spans="1:2" ht="17.5">
       <c r="A55" s="1">
         <v>43709</v>
       </c>
@@ -2757,7 +3013,7 @@
         <v>1.2999999999999998E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="17.25">
+    <row r="56" spans="1:2" ht="17.5">
       <c r="A56" s="1">
         <v>43739</v>
       </c>
@@ -2765,7 +3021,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="17.25">
+    <row r="57" spans="1:2" ht="17.5">
       <c r="A57" s="1">
         <v>43770</v>
       </c>
@@ -2773,7 +3029,7 @@
         <v>8.9999999999999976E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="17.25">
+    <row r="58" spans="1:2" ht="17.5">
       <c r="A58" s="1">
         <v>43800</v>
       </c>
@@ -2781,7 +3037,7 @@
         <v>5.000000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="17.25">
+    <row r="59" spans="1:2" ht="17.5">
       <c r="A59" s="1">
         <v>43831</v>
       </c>
@@ -2789,7 +3045,7 @@
         <v>6.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="17.25">
+    <row r="60" spans="1:2" ht="17.5">
       <c r="A60" s="1">
         <v>43862</v>
       </c>
@@ -2797,7 +3053,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="17.25">
+    <row r="61" spans="1:2" ht="17.5">
       <c r="A61" s="1">
         <v>43891</v>
       </c>
@@ -2805,7 +3061,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="17.25">
+    <row r="62" spans="1:2" ht="17.5">
       <c r="A62" s="1">
         <v>43922</v>
       </c>
@@ -2813,7 +3069,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="17.25">
+    <row r="63" spans="1:2" ht="17.5">
       <c r="A63" s="1">
         <v>43952</v>
       </c>
@@ -2821,7 +3077,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="17.25">
+    <row r="64" spans="1:2" ht="17.5">
       <c r="A64" s="1">
         <v>43983</v>
       </c>
@@ -2829,7 +3085,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="17.25">
+    <row r="65" spans="1:2" ht="17.5">
       <c r="A65" s="1">
         <v>44013</v>
       </c>
@@ -2837,7 +3093,7 @@
         <v>2.5999999999999995E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="17.25">
+    <row r="66" spans="1:2" ht="17.5">
       <c r="A66" s="1">
         <v>44044</v>
       </c>
@@ -2845,7 +3101,7 @@
         <v>2.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="17.25">
+    <row r="67" spans="1:2" ht="17.5">
       <c r="A67" s="1">
         <v>44075</v>
       </c>
@@ -2853,7 +3109,7 @@
         <v>2.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="17.25">
+    <row r="68" spans="1:2" ht="17.5">
       <c r="A68" s="1">
         <v>44105</v>
       </c>
@@ -2861,7 +3117,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="17.25">
+    <row r="69" spans="1:2" ht="17.5">
       <c r="A69" s="1">
         <v>44136</v>
       </c>
@@ -2869,7 +3125,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="17.25">
+    <row r="70" spans="1:2" ht="17.5">
       <c r="A70" s="1">
         <v>44166</v>
       </c>
@@ -2877,7 +3133,7 @@
         <v>1.8000000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="17.25">
+    <row r="71" spans="1:2" ht="17.5">
       <c r="A71" s="1">
         <v>44197</v>
       </c>
@@ -2885,7 +3141,7 @@
         <v>2.1000000000000005E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="17.25">
+    <row r="72" spans="1:2" ht="17.5">
       <c r="A72" s="1">
         <v>44228</v>
       </c>
@@ -2893,7 +3149,7 @@
         <v>2.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="17.25">
+    <row r="73" spans="1:2" ht="17.5">
       <c r="A73" s="1">
         <v>44256</v>
       </c>
@@ -2901,7 +3157,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="17.25">
+    <row r="74" spans="1:2" ht="17.5">
       <c r="A74" s="1">
         <v>44287</v>
       </c>
@@ -2909,7 +3165,7 @@
         <v>1.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="17.25">
+    <row r="75" spans="1:2" ht="17.5">
       <c r="A75" s="1">
         <v>44317</v>
       </c>
@@ -2917,7 +3173,7 @@
         <v>8.9999999999999941E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="17.25">
+    <row r="76" spans="1:2" ht="17.5">
       <c r="A76" s="1">
         <v>44348</v>
       </c>
@@ -2925,7 +3181,7 @@
         <v>4.9999999999999975E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="17.25">
+    <row r="77" spans="1:2" ht="17.5">
       <c r="A77" s="1">
         <v>44378</v>
       </c>
@@ -2933,7 +3189,7 @@
         <v>4.0000000000000036E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="17.25">
+    <row r="78" spans="1:2" ht="17.5">
       <c r="A78" s="1">
         <v>44409</v>
       </c>
@@ -2941,7 +3197,7 @@
         <v>3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="17.25">
+    <row r="79" spans="1:2" ht="17.5">
       <c r="A79" s="1">
         <v>44440</v>
       </c>
@@ -2949,7 +3205,7 @@
         <v>5.9999999999999984E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="17.25">
+    <row r="80" spans="1:2" ht="17.5">
       <c r="A80" s="1">
         <v>44470</v>
       </c>
@@ -2957,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="17.25">
+    <row r="81" spans="1:2" ht="17.5">
       <c r="A81" s="1">
         <v>44501</v>
       </c>
@@ -2965,7 +3221,7 @@
         <v>5.9999999999999915E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="17.25">
+    <row r="82" spans="1:2" ht="17.5">
       <c r="A82" s="1">
         <v>44531</v>
       </c>
@@ -2973,7 +3229,7 @@
         <v>3.9999999999999897E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="17.25">
+    <row r="83" spans="1:2" ht="17.5">
       <c r="A83" s="1">
         <v>44562</v>
       </c>
@@ -2981,7 +3237,7 @@
         <v>-4.0000000000000036E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="17.25">
+    <row r="84" spans="1:2" ht="17.5">
       <c r="A84" s="1">
         <v>44593</v>
       </c>
@@ -2989,7 +3245,7 @@
         <v>-6.0000000000000053E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="17.25">
+    <row r="85" spans="1:2" ht="17.5">
       <c r="A85" s="1">
         <v>44621</v>
       </c>
@@ -2997,7 +3253,7 @@
         <v>-1.0000000000000009E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="17.25">
+    <row r="86" spans="1:2" ht="17.5">
       <c r="A86" s="1">
         <v>44652</v>
       </c>
@@ -3005,7 +3261,7 @@
         <v>-6.0000000000000053E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="17.25">
+    <row r="87" spans="1:2" ht="17.5">
       <c r="A87" s="1">
         <v>44682</v>
       </c>
@@ -3013,7 +3269,7 @@
         <v>-8.9999999999999941E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="17.25">
+    <row r="88" spans="1:2" ht="17.5">
       <c r="A88" s="1">
         <v>44713</v>
       </c>
@@ -3021,7 +3277,7 @@
         <v>-1.0999999999999996E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="17.25">
+    <row r="89" spans="1:2" ht="17.5">
       <c r="A89" s="1">
         <v>44743</v>
       </c>
@@ -3029,7 +3285,7 @@
         <v>-3.0000000000000027E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="17.25">
+    <row r="90" spans="1:2" ht="17.5">
       <c r="A90" s="1">
         <v>44774</v>
       </c>
@@ -3037,7 +3293,7 @@
         <v>3.9999999999999897E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="17.25">
+    <row r="91" spans="1:2" ht="17.5">
       <c r="A91" s="1">
         <v>44805</v>
       </c>
@@ -3045,7 +3301,7 @@
         <v>4.9999999999999906E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="17.25">
+    <row r="92" spans="1:2" ht="17.5">
       <c r="A92" s="1">
         <v>44835</v>
       </c>
@@ -3053,7 +3309,7 @@
         <v>6.0000000000000053E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="17.25">
+    <row r="93" spans="1:2" ht="17.5">
       <c r="A93" s="1">
         <v>44866</v>
       </c>
@@ -3061,7 +3317,7 @@
         <v>7.0000000000000062E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="17.25">
+    <row r="94" spans="1:2" ht="17.5">
       <c r="A94" s="1">
         <v>44896</v>
       </c>
@@ -3069,7 +3325,7 @@
         <v>1.2999999999999998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="17.25">
+    <row r="95" spans="1:2" ht="17.5">
       <c r="A95" s="1">
         <v>44927</v>
       </c>
@@ -3077,7 +3333,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="17.25">
+    <row r="96" spans="1:2" ht="17.5">
       <c r="A96" s="1">
         <v>44958</v>
       </c>
@@ -3085,7 +3341,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="17.25">
+    <row r="97" spans="1:2" ht="17.5">
       <c r="A97" s="1">
         <v>44986</v>
       </c>
@@ -3094,9 +3350,283 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B97">
+  <sortState ref="A2:B97">
     <sortCondition ref="A2:A97"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="17">
+        <v>42156</v>
+      </c>
+      <c r="B2">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="17">
+        <v>42248</v>
+      </c>
+      <c r="B3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17">
+        <v>42339</v>
+      </c>
+      <c r="B4">
+        <v>1.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="17">
+        <v>42430</v>
+      </c>
+      <c r="B5">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="17">
+        <v>42522</v>
+      </c>
+      <c r="B6">
+        <v>1.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="17">
+        <v>42614</v>
+      </c>
+      <c r="B7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="17">
+        <v>42705</v>
+      </c>
+      <c r="B8">
+        <v>1.3000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="17">
+        <v>42795</v>
+      </c>
+      <c r="B9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="17">
+        <v>42887</v>
+      </c>
+      <c r="B10">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="17">
+        <v>42979</v>
+      </c>
+      <c r="B11">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="17">
+        <v>43070</v>
+      </c>
+      <c r="B12">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="17">
+        <v>43160</v>
+      </c>
+      <c r="B13">
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17">
+        <v>43252</v>
+      </c>
+      <c r="B14">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17">
+        <v>43344</v>
+      </c>
+      <c r="B15">
+        <v>2.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="17">
+        <v>43435</v>
+      </c>
+      <c r="B16">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="17">
+        <v>43525</v>
+      </c>
+      <c r="B17">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="17">
+        <v>43617</v>
+      </c>
+      <c r="B18">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="17">
+        <v>43709</v>
+      </c>
+      <c r="B19">
+        <v>1.2999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="17">
+        <v>43800</v>
+      </c>
+      <c r="B20">
+        <v>5.000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="17">
+        <v>43891</v>
+      </c>
+      <c r="B21">
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="17">
+        <v>43983</v>
+      </c>
+      <c r="B22">
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="17">
+        <v>44075</v>
+      </c>
+      <c r="B23">
+        <v>2.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="17">
+        <v>44166</v>
+      </c>
+      <c r="B24">
+        <v>1.8000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="17">
+        <v>44256</v>
+      </c>
+      <c r="B25">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="17">
+        <v>44348</v>
+      </c>
+      <c r="B26">
+        <v>4.9999999999999975E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="17">
+        <v>44440</v>
+      </c>
+      <c r="B27">
+        <v>5.9999999999999984E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="17">
+        <v>44531</v>
+      </c>
+      <c r="B28">
+        <v>3.9999999999999897E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="17">
+        <v>44621</v>
+      </c>
+      <c r="B29">
+        <v>-1.0000000000000009E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="17">
+        <v>44713</v>
+      </c>
+      <c r="B30">
+        <v>-1.0999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="17">
+        <v>44805</v>
+      </c>
+      <c r="B31">
+        <v>4.9999999999999906E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="17">
+        <v>44896</v>
+      </c>
+      <c r="B32">
+        <v>1.2999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>